--- a/public/ecom.xlsx
+++ b/public/ecom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Приложение № 4</t>
   </si>
@@ -326,16 +326,10 @@
     <t>deliveryAddress</t>
   </si>
   <si>
-    <t>companyLegalAdress</t>
-  </si>
-  <si>
     <t>cargoDescription</t>
   </si>
   <si>
     <t>deliveryDate</t>
-  </si>
-  <si>
-    <t>transportCompany</t>
   </si>
   <si>
     <t xml:space="preserve">truckNumber                                     </t>
@@ -811,6 +805,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -867,9 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:AA23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12:BD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,18 +1180,18 @@
       </c>
     </row>
     <row r="4" spans="1:57" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV4" s="87" t="s">
+      <c r="AV4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="87"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
     </row>
     <row r="5" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V5" s="2" t="s">
@@ -1206,143 +1200,143 @@
     </row>
     <row r="6" spans="1:57" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:57" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="89" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="89"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
     </row>
     <row r="8" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="90" t="s">
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="79" t="s">
+      <c r="Q8" s="91"/>
+      <c r="R8" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="90" t="s">
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="93" t="s">
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="90" t="s">
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="79" t="str">
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="80" t="str">
         <f>R8</f>
         <v>waybillNumber</v>
       </c>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="79"/>
-      <c r="BA8" s="79"/>
-      <c r="BB8" s="79"/>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
     </row>
     <row r="9" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1354,11 +1348,11 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="80">
+      <c r="H9" s="81">
         <v>1</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1408,119 +1402,117 @@
       <c r="BE9" s="6"/>
     </row>
     <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="82" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
     </row>
     <row r="11" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
       <c r="N11" s="9"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="85"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="86"/>
     </row>
     <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="49" t="s">
-        <v>100</v>
-      </c>
+      <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -1822,9 +1814,9 @@
     </row>
     <row r="17" spans="1:58" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="55">
         <f>B12</f>
-        <v>companyLegalAdress</v>
+        <v>0</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
@@ -2128,128 +2120,128 @@
     </row>
     <row r="22" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
       <c r="AB22" s="42"/>
       <c r="AC22" s="43"/>
-      <c r="AD22" s="78" t="s">
+      <c r="AD22" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="79"/>
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="79"/>
       <c r="BE22" s="39"/>
     </row>
     <row r="23" spans="1:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
+      <c r="B23" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="41"/>
-      <c r="AD23" s="76" t="s">
+      <c r="AD23" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="76"/>
-      <c r="BA23" s="76"/>
-      <c r="BB23" s="76"/>
-      <c r="BC23" s="76"/>
-      <c r="BD23" s="76"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="77"/>
       <c r="BE23" s="14"/>
     </row>
     <row r="24" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3046,7 +3038,7 @@
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
@@ -3354,9 +3346,7 @@
     </row>
     <row r="42" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="62" t="s">
-        <v>103</v>
-      </c>
+      <c r="B42" s="62"/>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
       <c r="E42" s="62"/>
@@ -3385,7 +3375,7 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE42" s="62"/>
       <c r="AF42" s="62"/>
@@ -3542,7 +3532,7 @@
     <row r="45" spans="1:57" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
@@ -3572,7 +3562,7 @@
       <c r="AB45" s="47"/>
       <c r="AC45" s="48"/>
       <c r="AD45" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE45" s="63"/>
       <c r="AF45" s="63"/>
@@ -3970,9 +3960,9 @@
     </row>
     <row r="54" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="55" t="str">
+      <c r="B54" s="55">
         <f>B12</f>
-        <v>companyLegalAdress</v>
+        <v>0</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -4093,9 +4083,9 @@
     </row>
     <row r="56" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
-      <c r="B56" s="55" t="str">
+      <c r="B56" s="55">
         <f>B12</f>
-        <v>companyLegalAdress</v>
+        <v>0</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -4717,7 +4707,7 @@
     <row r="66" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
@@ -4839,7 +4829,7 @@
     <row r="68" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
@@ -4867,7 +4857,7 @@
       <c r="Z68" s="65"/>
       <c r="AA68" s="30"/>
       <c r="AB68" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC68" s="58"/>
       <c r="AD68" s="58"/>
